--- a/svn/config/Common/TowerLevel.xlsx
+++ b/svn/config/Common/TowerLevel.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Svn\config\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zengfeng/workspaces/www/githubpages/ihaiu.UnityGameEngine/svn/config/Common/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ID解析规则" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -266,7 +271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +336,30 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -359,17 +388,23 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,9 +441,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -710,20 +753,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XEQ153"/>
+  <dimension ref="A1:Q153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="6" customWidth="1"/>
-    <col min="2" max="8" width="9.625" style="6" customWidth="1"/>
-    <col min="9" max="14" width="12.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="6" customWidth="1"/>
+    <col min="2" max="8" width="9.6640625" style="6" customWidth="1"/>
+    <col min="9" max="14" width="12.6640625" style="6" customWidth="1"/>
     <col min="15" max="17" width="11" style="6" customWidth="1"/>
     <col min="18" max="16384" width="9" style="6"/>
   </cols>
@@ -1576,1189 +1619,166 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1011 1027:2035 2051:3059 3075:4083 4099:5107 5123:6131 6147:7155 7171:8179 8195:9203 9219:10227 10243:11251 11267:12275 12291:13299 13315:14323 14339:15347 15363:16371" x14ac:dyDescent="0.15">
-      <c r="A17" s="6">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17" s="12">
         <v>3001014</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="6">
-        <v>2</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" s="12">
+        <v>2</v>
+      </c>
+      <c r="D17" s="12">
         <v>14</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="12">
         <v>3001</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="12">
         <v>1300</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="12">
         <v>13000</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="12">
         <v>650</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="12">
         <v>1900</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="12">
         <v>190</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="12">
         <v>19</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="12">
         <v>19</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="12">
         <v>19</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="12">
         <v>19</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="12">
         <v>500</v>
       </c>
-      <c r="P17" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1011 1027:2035 2051:3059 3075:4083 4099:5107 5123:6131 6147:7155 7171:8179 8195:9203 9219:10227 10243:11251 11267:12275 12291:13299 13315:14323 14339:15347 15363:16371" x14ac:dyDescent="0.15">
-      <c r="A18" s="8">
+      <c r="P17" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18" s="13">
         <v>3001015</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="8">
-        <v>2</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="C18" s="13">
+        <v>2</v>
+      </c>
+      <c r="D18" s="13">
         <v>15</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="13">
         <v>3001</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="13">
         <v>1400</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="13">
         <v>14000</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="13">
         <v>700</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="13">
         <v>2000</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="13">
         <v>200</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="13">
         <v>20</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="13">
         <v>20</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="13">
         <v>20</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="13">
         <v>20</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="13">
         <v>500</v>
       </c>
-      <c r="P18" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1011 1027:2035 2051:3059 3075:4083 4099:5107 5123:6131 6147:7155 7171:8179 8195:9203 9219:10227 10243:11251 11267:12275 12291:13299 13315:14323 14339:15347 15363:16371" x14ac:dyDescent="0.15">
-      <c r="A19" s="6">
+      <c r="P18" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19" s="12">
         <v>3002001</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="B19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12">
         <v>3002</v>
       </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6">
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
         <v>600</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="12">
         <v>60</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="12">
         <v>16</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="12">
         <v>16</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="12">
         <v>16</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="12">
         <v>16</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="12">
         <v>300</v>
       </c>
-      <c r="P19" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>0</v>
-      </c>
-      <c r="S19" s="9"/>
-      <c r="AI19" s="9"/>
-      <c r="AY19" s="9"/>
-      <c r="BO19" s="9"/>
-      <c r="CE19" s="9"/>
-      <c r="CU19" s="9"/>
-      <c r="DK19" s="9"/>
-      <c r="EA19" s="9"/>
-      <c r="EQ19" s="9"/>
-      <c r="FG19" s="9"/>
-      <c r="FW19" s="9"/>
-      <c r="GM19" s="9"/>
-      <c r="HC19" s="9"/>
-      <c r="HS19" s="9"/>
-      <c r="II19" s="9"/>
-      <c r="IY19" s="9"/>
-      <c r="JO19" s="9"/>
-      <c r="KE19" s="9"/>
-      <c r="KU19" s="9"/>
-      <c r="LK19" s="9"/>
-      <c r="MA19" s="9"/>
-      <c r="MQ19" s="9"/>
-      <c r="NG19" s="9"/>
-      <c r="NW19" s="9"/>
-      <c r="OM19" s="9"/>
-      <c r="PC19" s="9"/>
-      <c r="PS19" s="9"/>
-      <c r="QI19" s="9"/>
-      <c r="QY19" s="9"/>
-      <c r="RO19" s="9"/>
-      <c r="SE19" s="9"/>
-      <c r="SU19" s="9"/>
-      <c r="TK19" s="9"/>
-      <c r="UA19" s="9"/>
-      <c r="UQ19" s="9"/>
-      <c r="VG19" s="9"/>
-      <c r="VW19" s="9"/>
-      <c r="WM19" s="9"/>
-      <c r="XC19" s="9"/>
-      <c r="XS19" s="9"/>
-      <c r="YI19" s="9"/>
-      <c r="YY19" s="9"/>
-      <c r="ZO19" s="9"/>
-      <c r="AAE19" s="9"/>
-      <c r="AAU19" s="9"/>
-      <c r="ABK19" s="9"/>
-      <c r="ACA19" s="9"/>
-      <c r="ACQ19" s="9"/>
-      <c r="ADG19" s="9"/>
-      <c r="ADW19" s="9"/>
-      <c r="AEM19" s="9"/>
-      <c r="AFC19" s="9"/>
-      <c r="AFS19" s="9"/>
-      <c r="AGI19" s="9"/>
-      <c r="AGY19" s="9"/>
-      <c r="AHO19" s="9"/>
-      <c r="AIE19" s="9"/>
-      <c r="AIU19" s="9"/>
-      <c r="AJK19" s="9"/>
-      <c r="AKA19" s="9"/>
-      <c r="AKQ19" s="9"/>
-      <c r="ALG19" s="9"/>
-      <c r="ALW19" s="9"/>
-      <c r="AMM19" s="9"/>
-      <c r="ANC19" s="9"/>
-      <c r="ANS19" s="9"/>
-      <c r="AOI19" s="9"/>
-      <c r="AOY19" s="9"/>
-      <c r="APO19" s="9"/>
-      <c r="AQE19" s="9"/>
-      <c r="AQU19" s="9"/>
-      <c r="ARK19" s="9"/>
-      <c r="ASA19" s="9"/>
-      <c r="ASQ19" s="9"/>
-      <c r="ATG19" s="9"/>
-      <c r="ATW19" s="9"/>
-      <c r="AUM19" s="9"/>
-      <c r="AVC19" s="9"/>
-      <c r="AVS19" s="9"/>
-      <c r="AWI19" s="9"/>
-      <c r="AWY19" s="9"/>
-      <c r="AXO19" s="9"/>
-      <c r="AYE19" s="9"/>
-      <c r="AYU19" s="9"/>
-      <c r="AZK19" s="9"/>
-      <c r="BAA19" s="9"/>
-      <c r="BAQ19" s="9"/>
-      <c r="BBG19" s="9"/>
-      <c r="BBW19" s="9"/>
-      <c r="BCM19" s="9"/>
-      <c r="BDC19" s="9"/>
-      <c r="BDS19" s="9"/>
-      <c r="BEI19" s="9"/>
-      <c r="BEY19" s="9"/>
-      <c r="BFO19" s="9"/>
-      <c r="BGE19" s="9"/>
-      <c r="BGU19" s="9"/>
-      <c r="BHK19" s="9"/>
-      <c r="BIA19" s="9"/>
-      <c r="BIQ19" s="9"/>
-      <c r="BJG19" s="9"/>
-      <c r="BJW19" s="9"/>
-      <c r="BKM19" s="9"/>
-      <c r="BLC19" s="9"/>
-      <c r="BLS19" s="9"/>
-      <c r="BMI19" s="9"/>
-      <c r="BMY19" s="9"/>
-      <c r="BNO19" s="9"/>
-      <c r="BOE19" s="9"/>
-      <c r="BOU19" s="9"/>
-      <c r="BPK19" s="9"/>
-      <c r="BQA19" s="9"/>
-      <c r="BQQ19" s="9"/>
-      <c r="BRG19" s="9"/>
-      <c r="BRW19" s="9"/>
-      <c r="BSM19" s="9"/>
-      <c r="BTC19" s="9"/>
-      <c r="BTS19" s="9"/>
-      <c r="BUI19" s="9"/>
-      <c r="BUY19" s="9"/>
-      <c r="BVO19" s="9"/>
-      <c r="BWE19" s="9"/>
-      <c r="BWU19" s="9"/>
-      <c r="BXK19" s="9"/>
-      <c r="BYA19" s="9"/>
-      <c r="BYQ19" s="9"/>
-      <c r="BZG19" s="9"/>
-      <c r="BZW19" s="9"/>
-      <c r="CAM19" s="9"/>
-      <c r="CBC19" s="9"/>
-      <c r="CBS19" s="9"/>
-      <c r="CCI19" s="9"/>
-      <c r="CCY19" s="9"/>
-      <c r="CDO19" s="9"/>
-      <c r="CEE19" s="9"/>
-      <c r="CEU19" s="9"/>
-      <c r="CFK19" s="9"/>
-      <c r="CGA19" s="9"/>
-      <c r="CGQ19" s="9"/>
-      <c r="CHG19" s="9"/>
-      <c r="CHW19" s="9"/>
-      <c r="CIM19" s="9"/>
-      <c r="CJC19" s="9"/>
-      <c r="CJS19" s="9"/>
-      <c r="CKI19" s="9"/>
-      <c r="CKY19" s="9"/>
-      <c r="CLO19" s="9"/>
-      <c r="CME19" s="9"/>
-      <c r="CMU19" s="9"/>
-      <c r="CNK19" s="9"/>
-      <c r="COA19" s="9"/>
-      <c r="COQ19" s="9"/>
-      <c r="CPG19" s="9"/>
-      <c r="CPW19" s="9"/>
-      <c r="CQM19" s="9"/>
-      <c r="CRC19" s="9"/>
-      <c r="CRS19" s="9"/>
-      <c r="CSI19" s="9"/>
-      <c r="CSY19" s="9"/>
-      <c r="CTO19" s="9"/>
-      <c r="CUE19" s="9"/>
-      <c r="CUU19" s="9"/>
-      <c r="CVK19" s="9"/>
-      <c r="CWA19" s="9"/>
-      <c r="CWQ19" s="9"/>
-      <c r="CXG19" s="9"/>
-      <c r="CXW19" s="9"/>
-      <c r="CYM19" s="9"/>
-      <c r="CZC19" s="9"/>
-      <c r="CZS19" s="9"/>
-      <c r="DAI19" s="9"/>
-      <c r="DAY19" s="9"/>
-      <c r="DBO19" s="9"/>
-      <c r="DCE19" s="9"/>
-      <c r="DCU19" s="9"/>
-      <c r="DDK19" s="9"/>
-      <c r="DEA19" s="9"/>
-      <c r="DEQ19" s="9"/>
-      <c r="DFG19" s="9"/>
-      <c r="DFW19" s="9"/>
-      <c r="DGM19" s="9"/>
-      <c r="DHC19" s="9"/>
-      <c r="DHS19" s="9"/>
-      <c r="DII19" s="9"/>
-      <c r="DIY19" s="9"/>
-      <c r="DJO19" s="9"/>
-      <c r="DKE19" s="9"/>
-      <c r="DKU19" s="9"/>
-      <c r="DLK19" s="9"/>
-      <c r="DMA19" s="9"/>
-      <c r="DMQ19" s="9"/>
-      <c r="DNG19" s="9"/>
-      <c r="DNW19" s="9"/>
-      <c r="DOM19" s="9"/>
-      <c r="DPC19" s="9"/>
-      <c r="DPS19" s="9"/>
-      <c r="DQI19" s="9"/>
-      <c r="DQY19" s="9"/>
-      <c r="DRO19" s="9"/>
-      <c r="DSE19" s="9"/>
-      <c r="DSU19" s="9"/>
-      <c r="DTK19" s="9"/>
-      <c r="DUA19" s="9"/>
-      <c r="DUQ19" s="9"/>
-      <c r="DVG19" s="9"/>
-      <c r="DVW19" s="9"/>
-      <c r="DWM19" s="9"/>
-      <c r="DXC19" s="9"/>
-      <c r="DXS19" s="9"/>
-      <c r="DYI19" s="9"/>
-      <c r="DYY19" s="9"/>
-      <c r="DZO19" s="9"/>
-      <c r="EAE19" s="9"/>
-      <c r="EAU19" s="9"/>
-      <c r="EBK19" s="9"/>
-      <c r="ECA19" s="9"/>
-      <c r="ECQ19" s="9"/>
-      <c r="EDG19" s="9"/>
-      <c r="EDW19" s="9"/>
-      <c r="EEM19" s="9"/>
-      <c r="EFC19" s="9"/>
-      <c r="EFS19" s="9"/>
-      <c r="EGI19" s="9"/>
-      <c r="EGY19" s="9"/>
-      <c r="EHO19" s="9"/>
-      <c r="EIE19" s="9"/>
-      <c r="EIU19" s="9"/>
-      <c r="EJK19" s="9"/>
-      <c r="EKA19" s="9"/>
-      <c r="EKQ19" s="9"/>
-      <c r="ELG19" s="9"/>
-      <c r="ELW19" s="9"/>
-      <c r="EMM19" s="9"/>
-      <c r="ENC19" s="9"/>
-      <c r="ENS19" s="9"/>
-      <c r="EOI19" s="9"/>
-      <c r="EOY19" s="9"/>
-      <c r="EPO19" s="9"/>
-      <c r="EQE19" s="9"/>
-      <c r="EQU19" s="9"/>
-      <c r="ERK19" s="9"/>
-      <c r="ESA19" s="9"/>
-      <c r="ESQ19" s="9"/>
-      <c r="ETG19" s="9"/>
-      <c r="ETW19" s="9"/>
-      <c r="EUM19" s="9"/>
-      <c r="EVC19" s="9"/>
-      <c r="EVS19" s="9"/>
-      <c r="EWI19" s="9"/>
-      <c r="EWY19" s="9"/>
-      <c r="EXO19" s="9"/>
-      <c r="EYE19" s="9"/>
-      <c r="EYU19" s="9"/>
-      <c r="EZK19" s="9"/>
-      <c r="FAA19" s="9"/>
-      <c r="FAQ19" s="9"/>
-      <c r="FBG19" s="9"/>
-      <c r="FBW19" s="9"/>
-      <c r="FCM19" s="9"/>
-      <c r="FDC19" s="9"/>
-      <c r="FDS19" s="9"/>
-      <c r="FEI19" s="9"/>
-      <c r="FEY19" s="9"/>
-      <c r="FFO19" s="9"/>
-      <c r="FGE19" s="9"/>
-      <c r="FGU19" s="9"/>
-      <c r="FHK19" s="9"/>
-      <c r="FIA19" s="9"/>
-      <c r="FIQ19" s="9"/>
-      <c r="FJG19" s="9"/>
-      <c r="FJW19" s="9"/>
-      <c r="FKM19" s="9"/>
-      <c r="FLC19" s="9"/>
-      <c r="FLS19" s="9"/>
-      <c r="FMI19" s="9"/>
-      <c r="FMY19" s="9"/>
-      <c r="FNO19" s="9"/>
-      <c r="FOE19" s="9"/>
-      <c r="FOU19" s="9"/>
-      <c r="FPK19" s="9"/>
-      <c r="FQA19" s="9"/>
-      <c r="FQQ19" s="9"/>
-      <c r="FRG19" s="9"/>
-      <c r="FRW19" s="9"/>
-      <c r="FSM19" s="9"/>
-      <c r="FTC19" s="9"/>
-      <c r="FTS19" s="9"/>
-      <c r="FUI19" s="9"/>
-      <c r="FUY19" s="9"/>
-      <c r="FVO19" s="9"/>
-      <c r="FWE19" s="9"/>
-      <c r="FWU19" s="9"/>
-      <c r="FXK19" s="9"/>
-      <c r="FYA19" s="9"/>
-      <c r="FYQ19" s="9"/>
-      <c r="FZG19" s="9"/>
-      <c r="FZW19" s="9"/>
-      <c r="GAM19" s="9"/>
-      <c r="GBC19" s="9"/>
-      <c r="GBS19" s="9"/>
-      <c r="GCI19" s="9"/>
-      <c r="GCY19" s="9"/>
-      <c r="GDO19" s="9"/>
-      <c r="GEE19" s="9"/>
-      <c r="GEU19" s="9"/>
-      <c r="GFK19" s="9"/>
-      <c r="GGA19" s="9"/>
-      <c r="GGQ19" s="9"/>
-      <c r="GHG19" s="9"/>
-      <c r="GHW19" s="9"/>
-      <c r="GIM19" s="9"/>
-      <c r="GJC19" s="9"/>
-      <c r="GJS19" s="9"/>
-      <c r="GKI19" s="9"/>
-      <c r="GKY19" s="9"/>
-      <c r="GLO19" s="9"/>
-      <c r="GME19" s="9"/>
-      <c r="GMU19" s="9"/>
-      <c r="GNK19" s="9"/>
-      <c r="GOA19" s="9"/>
-      <c r="GOQ19" s="9"/>
-      <c r="GPG19" s="9"/>
-      <c r="GPW19" s="9"/>
-      <c r="GQM19" s="9"/>
-      <c r="GRC19" s="9"/>
-      <c r="GRS19" s="9"/>
-      <c r="GSI19" s="9"/>
-      <c r="GSY19" s="9"/>
-      <c r="GTO19" s="9"/>
-      <c r="GUE19" s="9"/>
-      <c r="GUU19" s="9"/>
-      <c r="GVK19" s="9"/>
-      <c r="GWA19" s="9"/>
-      <c r="GWQ19" s="9"/>
-      <c r="GXG19" s="9"/>
-      <c r="GXW19" s="9"/>
-      <c r="GYM19" s="9"/>
-      <c r="GZC19" s="9"/>
-      <c r="GZS19" s="9"/>
-      <c r="HAI19" s="9"/>
-      <c r="HAY19" s="9"/>
-      <c r="HBO19" s="9"/>
-      <c r="HCE19" s="9"/>
-      <c r="HCU19" s="9"/>
-      <c r="HDK19" s="9"/>
-      <c r="HEA19" s="9"/>
-      <c r="HEQ19" s="9"/>
-      <c r="HFG19" s="9"/>
-      <c r="HFW19" s="9"/>
-      <c r="HGM19" s="9"/>
-      <c r="HHC19" s="9"/>
-      <c r="HHS19" s="9"/>
-      <c r="HII19" s="9"/>
-      <c r="HIY19" s="9"/>
-      <c r="HJO19" s="9"/>
-      <c r="HKE19" s="9"/>
-      <c r="HKU19" s="9"/>
-      <c r="HLK19" s="9"/>
-      <c r="HMA19" s="9"/>
-      <c r="HMQ19" s="9"/>
-      <c r="HNG19" s="9"/>
-      <c r="HNW19" s="9"/>
-      <c r="HOM19" s="9"/>
-      <c r="HPC19" s="9"/>
-      <c r="HPS19" s="9"/>
-      <c r="HQI19" s="9"/>
-      <c r="HQY19" s="9"/>
-      <c r="HRO19" s="9"/>
-      <c r="HSE19" s="9"/>
-      <c r="HSU19" s="9"/>
-      <c r="HTK19" s="9"/>
-      <c r="HUA19" s="9"/>
-      <c r="HUQ19" s="9"/>
-      <c r="HVG19" s="9"/>
-      <c r="HVW19" s="9"/>
-      <c r="HWM19" s="9"/>
-      <c r="HXC19" s="9"/>
-      <c r="HXS19" s="9"/>
-      <c r="HYI19" s="9"/>
-      <c r="HYY19" s="9"/>
-      <c r="HZO19" s="9"/>
-      <c r="IAE19" s="9"/>
-      <c r="IAU19" s="9"/>
-      <c r="IBK19" s="9"/>
-      <c r="ICA19" s="9"/>
-      <c r="ICQ19" s="9"/>
-      <c r="IDG19" s="9"/>
-      <c r="IDW19" s="9"/>
-      <c r="IEM19" s="9"/>
-      <c r="IFC19" s="9"/>
-      <c r="IFS19" s="9"/>
-      <c r="IGI19" s="9"/>
-      <c r="IGY19" s="9"/>
-      <c r="IHO19" s="9"/>
-      <c r="IIE19" s="9"/>
-      <c r="IIU19" s="9"/>
-      <c r="IJK19" s="9"/>
-      <c r="IKA19" s="9"/>
-      <c r="IKQ19" s="9"/>
-      <c r="ILG19" s="9"/>
-      <c r="ILW19" s="9"/>
-      <c r="IMM19" s="9"/>
-      <c r="INC19" s="9"/>
-      <c r="INS19" s="9"/>
-      <c r="IOI19" s="9"/>
-      <c r="IOY19" s="9"/>
-      <c r="IPO19" s="9"/>
-      <c r="IQE19" s="9"/>
-      <c r="IQU19" s="9"/>
-      <c r="IRK19" s="9"/>
-      <c r="ISA19" s="9"/>
-      <c r="ISQ19" s="9"/>
-      <c r="ITG19" s="9"/>
-      <c r="ITW19" s="9"/>
-      <c r="IUM19" s="9"/>
-      <c r="IVC19" s="9"/>
-      <c r="IVS19" s="9"/>
-      <c r="IWI19" s="9"/>
-      <c r="IWY19" s="9"/>
-      <c r="IXO19" s="9"/>
-      <c r="IYE19" s="9"/>
-      <c r="IYU19" s="9"/>
-      <c r="IZK19" s="9"/>
-      <c r="JAA19" s="9"/>
-      <c r="JAQ19" s="9"/>
-      <c r="JBG19" s="9"/>
-      <c r="JBW19" s="9"/>
-      <c r="JCM19" s="9"/>
-      <c r="JDC19" s="9"/>
-      <c r="JDS19" s="9"/>
-      <c r="JEI19" s="9"/>
-      <c r="JEY19" s="9"/>
-      <c r="JFO19" s="9"/>
-      <c r="JGE19" s="9"/>
-      <c r="JGU19" s="9"/>
-      <c r="JHK19" s="9"/>
-      <c r="JIA19" s="9"/>
-      <c r="JIQ19" s="9"/>
-      <c r="JJG19" s="9"/>
-      <c r="JJW19" s="9"/>
-      <c r="JKM19" s="9"/>
-      <c r="JLC19" s="9"/>
-      <c r="JLS19" s="9"/>
-      <c r="JMI19" s="9"/>
-      <c r="JMY19" s="9"/>
-      <c r="JNO19" s="9"/>
-      <c r="JOE19" s="9"/>
-      <c r="JOU19" s="9"/>
-      <c r="JPK19" s="9"/>
-      <c r="JQA19" s="9"/>
-      <c r="JQQ19" s="9"/>
-      <c r="JRG19" s="9"/>
-      <c r="JRW19" s="9"/>
-      <c r="JSM19" s="9"/>
-      <c r="JTC19" s="9"/>
-      <c r="JTS19" s="9"/>
-      <c r="JUI19" s="9"/>
-      <c r="JUY19" s="9"/>
-      <c r="JVO19" s="9"/>
-      <c r="JWE19" s="9"/>
-      <c r="JWU19" s="9"/>
-      <c r="JXK19" s="9"/>
-      <c r="JYA19" s="9"/>
-      <c r="JYQ19" s="9"/>
-      <c r="JZG19" s="9"/>
-      <c r="JZW19" s="9"/>
-      <c r="KAM19" s="9"/>
-      <c r="KBC19" s="9"/>
-      <c r="KBS19" s="9"/>
-      <c r="KCI19" s="9"/>
-      <c r="KCY19" s="9"/>
-      <c r="KDO19" s="9"/>
-      <c r="KEE19" s="9"/>
-      <c r="KEU19" s="9"/>
-      <c r="KFK19" s="9"/>
-      <c r="KGA19" s="9"/>
-      <c r="KGQ19" s="9"/>
-      <c r="KHG19" s="9"/>
-      <c r="KHW19" s="9"/>
-      <c r="KIM19" s="9"/>
-      <c r="KJC19" s="9"/>
-      <c r="KJS19" s="9"/>
-      <c r="KKI19" s="9"/>
-      <c r="KKY19" s="9"/>
-      <c r="KLO19" s="9"/>
-      <c r="KME19" s="9"/>
-      <c r="KMU19" s="9"/>
-      <c r="KNK19" s="9"/>
-      <c r="KOA19" s="9"/>
-      <c r="KOQ19" s="9"/>
-      <c r="KPG19" s="9"/>
-      <c r="KPW19" s="9"/>
-      <c r="KQM19" s="9"/>
-      <c r="KRC19" s="9"/>
-      <c r="KRS19" s="9"/>
-      <c r="KSI19" s="9"/>
-      <c r="KSY19" s="9"/>
-      <c r="KTO19" s="9"/>
-      <c r="KUE19" s="9"/>
-      <c r="KUU19" s="9"/>
-      <c r="KVK19" s="9"/>
-      <c r="KWA19" s="9"/>
-      <c r="KWQ19" s="9"/>
-      <c r="KXG19" s="9"/>
-      <c r="KXW19" s="9"/>
-      <c r="KYM19" s="9"/>
-      <c r="KZC19" s="9"/>
-      <c r="KZS19" s="9"/>
-      <c r="LAI19" s="9"/>
-      <c r="LAY19" s="9"/>
-      <c r="LBO19" s="9"/>
-      <c r="LCE19" s="9"/>
-      <c r="LCU19" s="9"/>
-      <c r="LDK19" s="9"/>
-      <c r="LEA19" s="9"/>
-      <c r="LEQ19" s="9"/>
-      <c r="LFG19" s="9"/>
-      <c r="LFW19" s="9"/>
-      <c r="LGM19" s="9"/>
-      <c r="LHC19" s="9"/>
-      <c r="LHS19" s="9"/>
-      <c r="LII19" s="9"/>
-      <c r="LIY19" s="9"/>
-      <c r="LJO19" s="9"/>
-      <c r="LKE19" s="9"/>
-      <c r="LKU19" s="9"/>
-      <c r="LLK19" s="9"/>
-      <c r="LMA19" s="9"/>
-      <c r="LMQ19" s="9"/>
-      <c r="LNG19" s="9"/>
-      <c r="LNW19" s="9"/>
-      <c r="LOM19" s="9"/>
-      <c r="LPC19" s="9"/>
-      <c r="LPS19" s="9"/>
-      <c r="LQI19" s="9"/>
-      <c r="LQY19" s="9"/>
-      <c r="LRO19" s="9"/>
-      <c r="LSE19" s="9"/>
-      <c r="LSU19" s="9"/>
-      <c r="LTK19" s="9"/>
-      <c r="LUA19" s="9"/>
-      <c r="LUQ19" s="9"/>
-      <c r="LVG19" s="9"/>
-      <c r="LVW19" s="9"/>
-      <c r="LWM19" s="9"/>
-      <c r="LXC19" s="9"/>
-      <c r="LXS19" s="9"/>
-      <c r="LYI19" s="9"/>
-      <c r="LYY19" s="9"/>
-      <c r="LZO19" s="9"/>
-      <c r="MAE19" s="9"/>
-      <c r="MAU19" s="9"/>
-      <c r="MBK19" s="9"/>
-      <c r="MCA19" s="9"/>
-      <c r="MCQ19" s="9"/>
-      <c r="MDG19" s="9"/>
-      <c r="MDW19" s="9"/>
-      <c r="MEM19" s="9"/>
-      <c r="MFC19" s="9"/>
-      <c r="MFS19" s="9"/>
-      <c r="MGI19" s="9"/>
-      <c r="MGY19" s="9"/>
-      <c r="MHO19" s="9"/>
-      <c r="MIE19" s="9"/>
-      <c r="MIU19" s="9"/>
-      <c r="MJK19" s="9"/>
-      <c r="MKA19" s="9"/>
-      <c r="MKQ19" s="9"/>
-      <c r="MLG19" s="9"/>
-      <c r="MLW19" s="9"/>
-      <c r="MMM19" s="9"/>
-      <c r="MNC19" s="9"/>
-      <c r="MNS19" s="9"/>
-      <c r="MOI19" s="9"/>
-      <c r="MOY19" s="9"/>
-      <c r="MPO19" s="9"/>
-      <c r="MQE19" s="9"/>
-      <c r="MQU19" s="9"/>
-      <c r="MRK19" s="9"/>
-      <c r="MSA19" s="9"/>
-      <c r="MSQ19" s="9"/>
-      <c r="MTG19" s="9"/>
-      <c r="MTW19" s="9"/>
-      <c r="MUM19" s="9"/>
-      <c r="MVC19" s="9"/>
-      <c r="MVS19" s="9"/>
-      <c r="MWI19" s="9"/>
-      <c r="MWY19" s="9"/>
-      <c r="MXO19" s="9"/>
-      <c r="MYE19" s="9"/>
-      <c r="MYU19" s="9"/>
-      <c r="MZK19" s="9"/>
-      <c r="NAA19" s="9"/>
-      <c r="NAQ19" s="9"/>
-      <c r="NBG19" s="9"/>
-      <c r="NBW19" s="9"/>
-      <c r="NCM19" s="9"/>
-      <c r="NDC19" s="9"/>
-      <c r="NDS19" s="9"/>
-      <c r="NEI19" s="9"/>
-      <c r="NEY19" s="9"/>
-      <c r="NFO19" s="9"/>
-      <c r="NGE19" s="9"/>
-      <c r="NGU19" s="9"/>
-      <c r="NHK19" s="9"/>
-      <c r="NIA19" s="9"/>
-      <c r="NIQ19" s="9"/>
-      <c r="NJG19" s="9"/>
-      <c r="NJW19" s="9"/>
-      <c r="NKM19" s="9"/>
-      <c r="NLC19" s="9"/>
-      <c r="NLS19" s="9"/>
-      <c r="NMI19" s="9"/>
-      <c r="NMY19" s="9"/>
-      <c r="NNO19" s="9"/>
-      <c r="NOE19" s="9"/>
-      <c r="NOU19" s="9"/>
-      <c r="NPK19" s="9"/>
-      <c r="NQA19" s="9"/>
-      <c r="NQQ19" s="9"/>
-      <c r="NRG19" s="9"/>
-      <c r="NRW19" s="9"/>
-      <c r="NSM19" s="9"/>
-      <c r="NTC19" s="9"/>
-      <c r="NTS19" s="9"/>
-      <c r="NUI19" s="9"/>
-      <c r="NUY19" s="9"/>
-      <c r="NVO19" s="9"/>
-      <c r="NWE19" s="9"/>
-      <c r="NWU19" s="9"/>
-      <c r="NXK19" s="9"/>
-      <c r="NYA19" s="9"/>
-      <c r="NYQ19" s="9"/>
-      <c r="NZG19" s="9"/>
-      <c r="NZW19" s="9"/>
-      <c r="OAM19" s="9"/>
-      <c r="OBC19" s="9"/>
-      <c r="OBS19" s="9"/>
-      <c r="OCI19" s="9"/>
-      <c r="OCY19" s="9"/>
-      <c r="ODO19" s="9"/>
-      <c r="OEE19" s="9"/>
-      <c r="OEU19" s="9"/>
-      <c r="OFK19" s="9"/>
-      <c r="OGA19" s="9"/>
-      <c r="OGQ19" s="9"/>
-      <c r="OHG19" s="9"/>
-      <c r="OHW19" s="9"/>
-      <c r="OIM19" s="9"/>
-      <c r="OJC19" s="9"/>
-      <c r="OJS19" s="9"/>
-      <c r="OKI19" s="9"/>
-      <c r="OKY19" s="9"/>
-      <c r="OLO19" s="9"/>
-      <c r="OME19" s="9"/>
-      <c r="OMU19" s="9"/>
-      <c r="ONK19" s="9"/>
-      <c r="OOA19" s="9"/>
-      <c r="OOQ19" s="9"/>
-      <c r="OPG19" s="9"/>
-      <c r="OPW19" s="9"/>
-      <c r="OQM19" s="9"/>
-      <c r="ORC19" s="9"/>
-      <c r="ORS19" s="9"/>
-      <c r="OSI19" s="9"/>
-      <c r="OSY19" s="9"/>
-      <c r="OTO19" s="9"/>
-      <c r="OUE19" s="9"/>
-      <c r="OUU19" s="9"/>
-      <c r="OVK19" s="9"/>
-      <c r="OWA19" s="9"/>
-      <c r="OWQ19" s="9"/>
-      <c r="OXG19" s="9"/>
-      <c r="OXW19" s="9"/>
-      <c r="OYM19" s="9"/>
-      <c r="OZC19" s="9"/>
-      <c r="OZS19" s="9"/>
-      <c r="PAI19" s="9"/>
-      <c r="PAY19" s="9"/>
-      <c r="PBO19" s="9"/>
-      <c r="PCE19" s="9"/>
-      <c r="PCU19" s="9"/>
-      <c r="PDK19" s="9"/>
-      <c r="PEA19" s="9"/>
-      <c r="PEQ19" s="9"/>
-      <c r="PFG19" s="9"/>
-      <c r="PFW19" s="9"/>
-      <c r="PGM19" s="9"/>
-      <c r="PHC19" s="9"/>
-      <c r="PHS19" s="9"/>
-      <c r="PII19" s="9"/>
-      <c r="PIY19" s="9"/>
-      <c r="PJO19" s="9"/>
-      <c r="PKE19" s="9"/>
-      <c r="PKU19" s="9"/>
-      <c r="PLK19" s="9"/>
-      <c r="PMA19" s="9"/>
-      <c r="PMQ19" s="9"/>
-      <c r="PNG19" s="9"/>
-      <c r="PNW19" s="9"/>
-      <c r="POM19" s="9"/>
-      <c r="PPC19" s="9"/>
-      <c r="PPS19" s="9"/>
-      <c r="PQI19" s="9"/>
-      <c r="PQY19" s="9"/>
-      <c r="PRO19" s="9"/>
-      <c r="PSE19" s="9"/>
-      <c r="PSU19" s="9"/>
-      <c r="PTK19" s="9"/>
-      <c r="PUA19" s="9"/>
-      <c r="PUQ19" s="9"/>
-      <c r="PVG19" s="9"/>
-      <c r="PVW19" s="9"/>
-      <c r="PWM19" s="9"/>
-      <c r="PXC19" s="9"/>
-      <c r="PXS19" s="9"/>
-      <c r="PYI19" s="9"/>
-      <c r="PYY19" s="9"/>
-      <c r="PZO19" s="9"/>
-      <c r="QAE19" s="9"/>
-      <c r="QAU19" s="9"/>
-      <c r="QBK19" s="9"/>
-      <c r="QCA19" s="9"/>
-      <c r="QCQ19" s="9"/>
-      <c r="QDG19" s="9"/>
-      <c r="QDW19" s="9"/>
-      <c r="QEM19" s="9"/>
-      <c r="QFC19" s="9"/>
-      <c r="QFS19" s="9"/>
-      <c r="QGI19" s="9"/>
-      <c r="QGY19" s="9"/>
-      <c r="QHO19" s="9"/>
-      <c r="QIE19" s="9"/>
-      <c r="QIU19" s="9"/>
-      <c r="QJK19" s="9"/>
-      <c r="QKA19" s="9"/>
-      <c r="QKQ19" s="9"/>
-      <c r="QLG19" s="9"/>
-      <c r="QLW19" s="9"/>
-      <c r="QMM19" s="9"/>
-      <c r="QNC19" s="9"/>
-      <c r="QNS19" s="9"/>
-      <c r="QOI19" s="9"/>
-      <c r="QOY19" s="9"/>
-      <c r="QPO19" s="9"/>
-      <c r="QQE19" s="9"/>
-      <c r="QQU19" s="9"/>
-      <c r="QRK19" s="9"/>
-      <c r="QSA19" s="9"/>
-      <c r="QSQ19" s="9"/>
-      <c r="QTG19" s="9"/>
-      <c r="QTW19" s="9"/>
-      <c r="QUM19" s="9"/>
-      <c r="QVC19" s="9"/>
-      <c r="QVS19" s="9"/>
-      <c r="QWI19" s="9"/>
-      <c r="QWY19" s="9"/>
-      <c r="QXO19" s="9"/>
-      <c r="QYE19" s="9"/>
-      <c r="QYU19" s="9"/>
-      <c r="QZK19" s="9"/>
-      <c r="RAA19" s="9"/>
-      <c r="RAQ19" s="9"/>
-      <c r="RBG19" s="9"/>
-      <c r="RBW19" s="9"/>
-      <c r="RCM19" s="9"/>
-      <c r="RDC19" s="9"/>
-      <c r="RDS19" s="9"/>
-      <c r="REI19" s="9"/>
-      <c r="REY19" s="9"/>
-      <c r="RFO19" s="9"/>
-      <c r="RGE19" s="9"/>
-      <c r="RGU19" s="9"/>
-      <c r="RHK19" s="9"/>
-      <c r="RIA19" s="9"/>
-      <c r="RIQ19" s="9"/>
-      <c r="RJG19" s="9"/>
-      <c r="RJW19" s="9"/>
-      <c r="RKM19" s="9"/>
-      <c r="RLC19" s="9"/>
-      <c r="RLS19" s="9"/>
-      <c r="RMI19" s="9"/>
-      <c r="RMY19" s="9"/>
-      <c r="RNO19" s="9"/>
-      <c r="ROE19" s="9"/>
-      <c r="ROU19" s="9"/>
-      <c r="RPK19" s="9"/>
-      <c r="RQA19" s="9"/>
-      <c r="RQQ19" s="9"/>
-      <c r="RRG19" s="9"/>
-      <c r="RRW19" s="9"/>
-      <c r="RSM19" s="9"/>
-      <c r="RTC19" s="9"/>
-      <c r="RTS19" s="9"/>
-      <c r="RUI19" s="9"/>
-      <c r="RUY19" s="9"/>
-      <c r="RVO19" s="9"/>
-      <c r="RWE19" s="9"/>
-      <c r="RWU19" s="9"/>
-      <c r="RXK19" s="9"/>
-      <c r="RYA19" s="9"/>
-      <c r="RYQ19" s="9"/>
-      <c r="RZG19" s="9"/>
-      <c r="RZW19" s="9"/>
-      <c r="SAM19" s="9"/>
-      <c r="SBC19" s="9"/>
-      <c r="SBS19" s="9"/>
-      <c r="SCI19" s="9"/>
-      <c r="SCY19" s="9"/>
-      <c r="SDO19" s="9"/>
-      <c r="SEE19" s="9"/>
-      <c r="SEU19" s="9"/>
-      <c r="SFK19" s="9"/>
-      <c r="SGA19" s="9"/>
-      <c r="SGQ19" s="9"/>
-      <c r="SHG19" s="9"/>
-      <c r="SHW19" s="9"/>
-      <c r="SIM19" s="9"/>
-      <c r="SJC19" s="9"/>
-      <c r="SJS19" s="9"/>
-      <c r="SKI19" s="9"/>
-      <c r="SKY19" s="9"/>
-      <c r="SLO19" s="9"/>
-      <c r="SME19" s="9"/>
-      <c r="SMU19" s="9"/>
-      <c r="SNK19" s="9"/>
-      <c r="SOA19" s="9"/>
-      <c r="SOQ19" s="9"/>
-      <c r="SPG19" s="9"/>
-      <c r="SPW19" s="9"/>
-      <c r="SQM19" s="9"/>
-      <c r="SRC19" s="9"/>
-      <c r="SRS19" s="9"/>
-      <c r="SSI19" s="9"/>
-      <c r="SSY19" s="9"/>
-      <c r="STO19" s="9"/>
-      <c r="SUE19" s="9"/>
-      <c r="SUU19" s="9"/>
-      <c r="SVK19" s="9"/>
-      <c r="SWA19" s="9"/>
-      <c r="SWQ19" s="9"/>
-      <c r="SXG19" s="9"/>
-      <c r="SXW19" s="9"/>
-      <c r="SYM19" s="9"/>
-      <c r="SZC19" s="9"/>
-      <c r="SZS19" s="9"/>
-      <c r="TAI19" s="9"/>
-      <c r="TAY19" s="9"/>
-      <c r="TBO19" s="9"/>
-      <c r="TCE19" s="9"/>
-      <c r="TCU19" s="9"/>
-      <c r="TDK19" s="9"/>
-      <c r="TEA19" s="9"/>
-      <c r="TEQ19" s="9"/>
-      <c r="TFG19" s="9"/>
-      <c r="TFW19" s="9"/>
-      <c r="TGM19" s="9"/>
-      <c r="THC19" s="9"/>
-      <c r="THS19" s="9"/>
-      <c r="TII19" s="9"/>
-      <c r="TIY19" s="9"/>
-      <c r="TJO19" s="9"/>
-      <c r="TKE19" s="9"/>
-      <c r="TKU19" s="9"/>
-      <c r="TLK19" s="9"/>
-      <c r="TMA19" s="9"/>
-      <c r="TMQ19" s="9"/>
-      <c r="TNG19" s="9"/>
-      <c r="TNW19" s="9"/>
-      <c r="TOM19" s="9"/>
-      <c r="TPC19" s="9"/>
-      <c r="TPS19" s="9"/>
-      <c r="TQI19" s="9"/>
-      <c r="TQY19" s="9"/>
-      <c r="TRO19" s="9"/>
-      <c r="TSE19" s="9"/>
-      <c r="TSU19" s="9"/>
-      <c r="TTK19" s="9"/>
-      <c r="TUA19" s="9"/>
-      <c r="TUQ19" s="9"/>
-      <c r="TVG19" s="9"/>
-      <c r="TVW19" s="9"/>
-      <c r="TWM19" s="9"/>
-      <c r="TXC19" s="9"/>
-      <c r="TXS19" s="9"/>
-      <c r="TYI19" s="9"/>
-      <c r="TYY19" s="9"/>
-      <c r="TZO19" s="9"/>
-      <c r="UAE19" s="9"/>
-      <c r="UAU19" s="9"/>
-      <c r="UBK19" s="9"/>
-      <c r="UCA19" s="9"/>
-      <c r="UCQ19" s="9"/>
-      <c r="UDG19" s="9"/>
-      <c r="UDW19" s="9"/>
-      <c r="UEM19" s="9"/>
-      <c r="UFC19" s="9"/>
-      <c r="UFS19" s="9"/>
-      <c r="UGI19" s="9"/>
-      <c r="UGY19" s="9"/>
-      <c r="UHO19" s="9"/>
-      <c r="UIE19" s="9"/>
-      <c r="UIU19" s="9"/>
-      <c r="UJK19" s="9"/>
-      <c r="UKA19" s="9"/>
-      <c r="UKQ19" s="9"/>
-      <c r="ULG19" s="9"/>
-      <c r="ULW19" s="9"/>
-      <c r="UMM19" s="9"/>
-      <c r="UNC19" s="9"/>
-      <c r="UNS19" s="9"/>
-      <c r="UOI19" s="9"/>
-      <c r="UOY19" s="9"/>
-      <c r="UPO19" s="9"/>
-      <c r="UQE19" s="9"/>
-      <c r="UQU19" s="9"/>
-      <c r="URK19" s="9"/>
-      <c r="USA19" s="9"/>
-      <c r="USQ19" s="9"/>
-      <c r="UTG19" s="9"/>
-      <c r="UTW19" s="9"/>
-      <c r="UUM19" s="9"/>
-      <c r="UVC19" s="9"/>
-      <c r="UVS19" s="9"/>
-      <c r="UWI19" s="9"/>
-      <c r="UWY19" s="9"/>
-      <c r="UXO19" s="9"/>
-      <c r="UYE19" s="9"/>
-      <c r="UYU19" s="9"/>
-      <c r="UZK19" s="9"/>
-      <c r="VAA19" s="9"/>
-      <c r="VAQ19" s="9"/>
-      <c r="VBG19" s="9"/>
-      <c r="VBW19" s="9"/>
-      <c r="VCM19" s="9"/>
-      <c r="VDC19" s="9"/>
-      <c r="VDS19" s="9"/>
-      <c r="VEI19" s="9"/>
-      <c r="VEY19" s="9"/>
-      <c r="VFO19" s="9"/>
-      <c r="VGE19" s="9"/>
-      <c r="VGU19" s="9"/>
-      <c r="VHK19" s="9"/>
-      <c r="VIA19" s="9"/>
-      <c r="VIQ19" s="9"/>
-      <c r="VJG19" s="9"/>
-      <c r="VJW19" s="9"/>
-      <c r="VKM19" s="9"/>
-      <c r="VLC19" s="9"/>
-      <c r="VLS19" s="9"/>
-      <c r="VMI19" s="9"/>
-      <c r="VMY19" s="9"/>
-      <c r="VNO19" s="9"/>
-      <c r="VOE19" s="9"/>
-      <c r="VOU19" s="9"/>
-      <c r="VPK19" s="9"/>
-      <c r="VQA19" s="9"/>
-      <c r="VQQ19" s="9"/>
-      <c r="VRG19" s="9"/>
-      <c r="VRW19" s="9"/>
-      <c r="VSM19" s="9"/>
-      <c r="VTC19" s="9"/>
-      <c r="VTS19" s="9"/>
-      <c r="VUI19" s="9"/>
-      <c r="VUY19" s="9"/>
-      <c r="VVO19" s="9"/>
-      <c r="VWE19" s="9"/>
-      <c r="VWU19" s="9"/>
-      <c r="VXK19" s="9"/>
-      <c r="VYA19" s="9"/>
-      <c r="VYQ19" s="9"/>
-      <c r="VZG19" s="9"/>
-      <c r="VZW19" s="9"/>
-      <c r="WAM19" s="9"/>
-      <c r="WBC19" s="9"/>
-      <c r="WBS19" s="9"/>
-      <c r="WCI19" s="9"/>
-      <c r="WCY19" s="9"/>
-      <c r="WDO19" s="9"/>
-      <c r="WEE19" s="9"/>
-      <c r="WEU19" s="9"/>
-      <c r="WFK19" s="9"/>
-      <c r="WGA19" s="9"/>
-      <c r="WGQ19" s="9"/>
-      <c r="WHG19" s="9"/>
-      <c r="WHW19" s="9"/>
-      <c r="WIM19" s="9"/>
-      <c r="WJC19" s="9"/>
-      <c r="WJS19" s="9"/>
-      <c r="WKI19" s="9"/>
-      <c r="WKY19" s="9"/>
-      <c r="WLO19" s="9"/>
-      <c r="WME19" s="9"/>
-      <c r="WMU19" s="9"/>
-      <c r="WNK19" s="9"/>
-      <c r="WOA19" s="9"/>
-      <c r="WOQ19" s="9"/>
-      <c r="WPG19" s="9"/>
-      <c r="WPW19" s="9"/>
-      <c r="WQM19" s="9"/>
-      <c r="WRC19" s="9"/>
-      <c r="WRS19" s="9"/>
-      <c r="WSI19" s="9"/>
-      <c r="WSY19" s="9"/>
-      <c r="WTO19" s="9"/>
-      <c r="WUE19" s="9"/>
-      <c r="WUU19" s="9"/>
-      <c r="WVK19" s="9"/>
-      <c r="WWA19" s="9"/>
-      <c r="WWQ19" s="9"/>
-      <c r="WXG19" s="9"/>
-      <c r="WXW19" s="9"/>
-      <c r="WYM19" s="9"/>
-      <c r="WZC19" s="9"/>
-      <c r="WZS19" s="9"/>
-      <c r="XAI19" s="9"/>
-      <c r="XAY19" s="9"/>
-      <c r="XBO19" s="9"/>
-      <c r="XCE19" s="9"/>
-      <c r="XCU19" s="9"/>
-      <c r="XDK19" s="9"/>
-      <c r="XEA19" s="9"/>
-      <c r="XEQ19" s="9"/>
-    </row>
-    <row r="20" spans="1:1011 1027:2035 2051:3059 3075:4083 4099:5107 5123:6131 6147:7155 7171:8179 8195:9203 9219:10227 10243:11251 11267:12275 12291:13299 13315:14323 14339:15347 15363:16371" x14ac:dyDescent="0.15">
+      <c r="P19" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>3002002</v>
       </c>
@@ -2811,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1011 1027:2035 2051:3059 3075:4083 4099:5107 5123:6131 6147:7155 7171:8179 8195:9203 9219:10227 10243:11251 11267:12275 12291:13299 13315:14323 14339:15347 15363:16371" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>3002003</v>
       </c>
@@ -2864,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:1011 1027:2035 2051:3059 3075:4083 4099:5107 5123:6131 6147:7155 7171:8179 8195:9203 9219:10227 10243:11251 11267:12275 12291:13299 13315:14323 14339:15347 15363:16371" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>3002004</v>
       </c>
@@ -2917,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:1011 1027:2035 2051:3059 3075:4083 4099:5107 5123:6131 6147:7155 7171:8179 8195:9203 9219:10227 10243:11251 11267:12275 12291:13299 13315:14323 14339:15347 15363:16371" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>3002005</v>
       </c>
@@ -2970,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:1011 1027:2035 2051:3059 3075:4083 4099:5107 5123:6131 6147:7155 7171:8179 8195:9203 9219:10227 10243:11251 11267:12275 12291:13299 13315:14323 14339:15347 15363:16371" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>3002006</v>
       </c>
@@ -3023,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:1011 1027:2035 2051:3059 3075:4083 4099:5107 5123:6131 6147:7155 7171:8179 8195:9203 9219:10227 10243:11251 11267:12275 12291:13299 13315:14323 14339:15347 15363:16371" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>3002007</v>
       </c>
@@ -3076,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:1011 1027:2035 2051:3059 3075:4083 4099:5107 5123:6131 6147:7155 7171:8179 8195:9203 9219:10227 10243:11251 11267:12275 12291:13299 13315:14323 14339:15347 15363:16371" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>3002008</v>
       </c>
@@ -3129,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:1011 1027:2035 2051:3059 3075:4083 4099:5107 5123:6131 6147:7155 7171:8179 8195:9203 9219:10227 10243:11251 11267:12275 12291:13299 13315:14323 14339:15347 15363:16371" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>3002009</v>
       </c>
@@ -3182,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:1011 1027:2035 2051:3059 3075:4083 4099:5107 5123:6131 6147:7155 7171:8179 8195:9203 9219:10227 10243:11251 11267:12275 12291:13299 13315:14323 14339:15347 15363:16371" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>3002010</v>
       </c>
@@ -3235,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:1011 1027:2035 2051:3059 3075:4083 4099:5107 5123:6131 6147:7155 7171:8179 8195:9203 9219:10227 10243:11251 11267:12275 12291:13299 13315:14323 14339:15347 15363:16371" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>3002011</v>
       </c>
@@ -3288,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:1011 1027:2035 2051:3059 3075:4083 4099:5107 5123:6131 6147:7155 7171:8179 8195:9203 9219:10227 10243:11251 11267:12275 12291:13299 13315:14323 14339:15347 15363:16371" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>3002012</v>
       </c>
@@ -3341,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:1011 1027:2035 2051:3059 3075:4083 4099:5107 5123:6131 6147:7155 7171:8179 8195:9203 9219:10227 10243:11251 11267:12275 12291:13299 13315:14323 14339:15347 15363:16371" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>3002013</v>
       </c>
@@ -3394,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:1011 1027:2035 2051:3059 3075:4083 4099:5107 5123:6131 6147:7155 7171:8179 8195:9203 9219:10227 10243:11251 11267:12275 12291:13299 13315:14323 14339:15347 15363:16371" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>3002014</v>
       </c>
@@ -9875,16 +8895,16 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="4.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.25" style="2" customWidth="1"/>
-    <col min="4" max="10" width="5.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="2" customWidth="1"/>
+    <col min="4" max="10" width="5.83203125" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:10" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
@@ -9921,7 +8941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:10" ht="43" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
@@ -9947,7 +8967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:10" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
